--- a/account/test/data.xlsx
+++ b/account/test/data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>月</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>CC</t>
   </si>
 </sst>
 </file>
@@ -1569,34 +1578,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
